--- a/meta/program/BlancoValueObjectArraySample.xlsx
+++ b/meta/program/BlancoValueObjectArraySample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectPhp/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haino/Desktop/blancoValueObjectPhp/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="640"/>
+    <workbookView xWindow="2580" yWindow="600" windowWidth="25520" windowHeight="15540" tabRatio="640"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>クラス名</t>
   </si>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>blanco\sample\valueobject</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ArraySampleOya</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1016,10 +1020,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1152,7 +1156,9 @@
         <v>0</v>
       </c>
       <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
@@ -1162,156 +1168,180 @@
       <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="41" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B18" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C18" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D18" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F18" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="19">
+      <c r="G18" s="40"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="19">
         <v>1</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F20" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="19">
-        <v>2</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="A21" s="19">
+        <v>2</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
       <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E38">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E40">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
